--- a/00-项目管理/高端控制盒项目研发进度表.xlsx
+++ b/00-项目管理/高端控制盒项目研发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>高端控制盒项目进度表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,12 +330,33 @@
     <t>预期完成日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>如期完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与控制基板同步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期已经完成部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前完成
+20170408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +426,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -824,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,6 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1287,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1453,9 +1482,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1495,7 @@
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,7 +1553,9 @@
       <c r="E3" s="29">
         <v>42831</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="G3" s="28"/>
       <c r="H3" s="30" t="s">
         <v>26</v>
@@ -1544,7 +1575,9 @@
       <c r="E4" s="15">
         <v>42831</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="30" t="s">
         <v>26</v>
@@ -1564,8 +1597,12 @@
       <c r="E5" s="15">
         <v>42833</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -1676,7 +1713,9 @@
       <c r="E11" s="22">
         <v>42832</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="23" t="s">
         <v>8</v>
@@ -1696,8 +1735,12 @@
       <c r="E12" s="15">
         <v>42836</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="16" t="s">
         <v>8</v>
       </c>
@@ -1716,8 +1759,12 @@
       <c r="E13" s="15">
         <v>42839</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="H13" s="16" t="s">
         <v>8</v>
       </c>

--- a/00-项目管理/高端控制盒项目研发进度表.xlsx
+++ b/00-项目管理/高端控制盒项目研发进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>高端控制盒项目进度表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,20 +335,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与控制基板同步设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前期已经完成部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提前完成
 20170408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如期完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与控制基板同步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如期完成
+20170414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如期完成
+20170416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电气设计工作基本完成，等待焊接调试；
+软件设计完成，调试基本完成；
+机械设计完成，已加工完成，待发货；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="华文仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成：电路板焊接、调试；软硬件综合调试；装配；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,11 +456,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -852,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -943,9 +972,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,7 +1050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1316,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1328,21 +1368,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1378,60 +1418,64 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="12">
         <v>42831</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:6" s="42" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="40">
+        <v>42841</v>
+      </c>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="12"/>
       <c r="F10" s="1"/>
     </row>
@@ -1442,10 +1486,10 @@
       <c r="B11" s="9">
         <v>42831</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="10" t="s">
         <v>76</v>
       </c>
@@ -1472,6 +1516,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1482,9 +1527,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,22 +1539,22 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -1538,7 +1583,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1562,7 +1607,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
@@ -1584,7 +1629,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
@@ -1597,18 +1642,16 @@
       <c r="E5" s="15">
         <v>42833</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="F5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
@@ -1621,14 +1664,16 @@
       <c r="E6" s="15">
         <v>42839</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1641,14 +1686,16 @@
       <c r="E7" s="15">
         <v>42839</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1715,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="14" t="s">
         <v>59</v>
       </c>
@@ -1688,7 +1735,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="37"/>
@@ -1698,7 +1745,7 @@
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1718,11 +1765,11 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="23" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
@@ -1736,17 +1783,17 @@
         <v>42836</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="14" t="s">
         <v>49</v>
       </c>
@@ -1760,17 +1807,17 @@
         <v>42839</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="14" t="s">
         <v>50</v>
       </c>
@@ -1783,14 +1830,16 @@
       <c r="E14" s="15">
         <v>42844</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="14" t="s">
         <v>53</v>
       </c>
@@ -1803,14 +1852,16 @@
       <c r="E15" s="15">
         <v>42846</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1881,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -1850,7 +1901,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="39"/>
@@ -1860,7 +1911,7 @@
       <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -1875,14 +1926,16 @@
       <c r="E19" s="29">
         <v>42835</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="28"/>
       <c r="H19" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
@@ -1895,14 +1948,16 @@
       <c r="E20" s="15">
         <v>42836</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="14" t="s">
         <v>72</v>
       </c>
@@ -1915,14 +1970,16 @@
       <c r="E21" s="15">
         <v>42838</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="14" t="s">
         <v>74</v>
       </c>
@@ -1942,7 +1999,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="36"/>
@@ -1954,7 +2011,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="37"/>
